--- a/非受控文档/绩效评价/第十一周绩效评.xlsx
+++ b/非受控文档/绩效评价/第十一周绩效评.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="28315"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="27809"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liuqi/Desktop/PRD2018/绩效评价/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cmy/Documents/GitHub/SE-Education-Assistant-System/非受控文档/绩效评价/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16480"/>
   </bookViews>
   <sheets>
     <sheet name="20180426" sheetId="4" r:id="rId1"/>
@@ -345,125 +345,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>3.小组未说明原因或未请假，会议迟到，本周绩效扣除0.05分，并罚款与迟到分钟对等的人名币（例如迟到5分钟罚款5元，迟到60分钟罚款60元）作为团建基金</t>
-    <rPh sb="2" eb="3">
-      <t>xiao zu</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>wei</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>shuo ming</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>yuan yin</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>huo zhe</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>wei</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>qing jia</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>hui yi</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>chi dao</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>ben zhou</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>ji xiao</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>kou chu</t>
-    </rPh>
-    <rPh sb="29" eb="30">
-      <t>fen</t>
-    </rPh>
-    <rPh sb="31" eb="32">
-      <t>bing fa kuan</t>
-    </rPh>
-    <rPh sb="34" eb="35">
-      <t>yu</t>
-    </rPh>
-    <rPh sb="35" eb="36">
-      <t>chi dao</t>
-    </rPh>
-    <rPh sb="37" eb="38">
-      <t>fen zhong</t>
-    </rPh>
-    <rPh sb="39" eb="40">
-      <t>dui deng</t>
-    </rPh>
-    <rPh sb="41" eb="42">
-      <t>d</t>
-    </rPh>
-    <rPh sb="42" eb="43">
-      <t>ren ming bi</t>
-    </rPh>
-    <rPh sb="46" eb="47">
-      <t>li ru</t>
-    </rPh>
-    <rPh sb="48" eb="49">
-      <t>chi dao</t>
-    </rPh>
-    <rPh sb="51" eb="52">
-      <t>fen zhong</t>
-    </rPh>
-    <rPh sb="53" eb="54">
-      <t>fa kuan</t>
-    </rPh>
-    <rPh sb="56" eb="57">
-      <t>yuan</t>
-    </rPh>
-    <rPh sb="58" eb="59">
-      <t>chi dao</t>
-    </rPh>
-    <rPh sb="62" eb="63">
-      <t>fen z</t>
-    </rPh>
-    <rPh sb="64" eb="65">
-      <t>fa kuan</t>
-    </rPh>
-    <rPh sb="68" eb="69">
-      <t>yuan</t>
-    </rPh>
-    <rPh sb="70" eb="71">
-      <t>zuo wei</t>
-    </rPh>
-    <rPh sb="72" eb="73">
-      <t>tuan jian ji jin</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4.小组未说明原因或未请假，会议未到，本周绩效扣除0.1分，并罚款与会议时间分钟数对等的人名币。作为团建基金。</t>
-    <rPh sb="16" eb="17">
-      <t>wei</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>dao</t>
-    </rPh>
-    <rPh sb="34" eb="35">
-      <t>hui yi</t>
-    </rPh>
-    <rPh sb="36" eb="37">
-      <t>shi jian</t>
-    </rPh>
-    <rPh sb="38" eb="39">
-      <t>fen zhong</t>
-    </rPh>
-    <rPh sb="40" eb="41">
-      <t>shu</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>绩效评价规则：</t>
     <rPh sb="0" eb="1">
       <t>ji xiao</t>
@@ -952,6 +833,128 @@
   </si>
   <si>
     <t>第11周任务清单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.小组未说明原因或未请假，会议迟到，本周绩效扣除0.05分，并罚款与迟到分钟对等的人民币（例如迟到5分钟罚款5元，迟到60分钟罚款60元）作为团建基金</t>
+    <rPh sb="2" eb="3">
+      <t>xiao zu</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>wei</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>shuo ming</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>yuan yin</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>huo zhe</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>wei</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>qing jia</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>hui yi</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>chi dao</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ben zhou</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ji xiao</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>kou chu</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>fen</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>bing fa kuan</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>yu</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>chi dao</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>fen zhong</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>dui deng</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>d</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>ren min</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>li ru</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>chi dao</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>fen zhong</t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t>fa kuan</t>
+    </rPh>
+    <rPh sb="56" eb="57">
+      <t>yuan</t>
+    </rPh>
+    <rPh sb="58" eb="59">
+      <t>chi dao</t>
+    </rPh>
+    <rPh sb="62" eb="63">
+      <t>fen z</t>
+    </rPh>
+    <rPh sb="64" eb="65">
+      <t>fa kuan</t>
+    </rPh>
+    <rPh sb="68" eb="69">
+      <t>yuan</t>
+    </rPh>
+    <rPh sb="70" eb="71">
+      <t>zuo wei</t>
+    </rPh>
+    <rPh sb="72" eb="73">
+      <t>tuan jian ji jin</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.小组未说明原因或未请假，会议未到，本周绩效扣除0.1分，并罚款与会议时间分钟数对等的人民币。作为团建基金。</t>
+    <rPh sb="16" eb="17">
+      <t>wei</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>dao</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>hui yi</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>shi jian</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>fen zhong</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>shu</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>ren min</t>
+    </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1351,6 +1354,48 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1362,48 +1407,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="27">
@@ -1747,8 +1750,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:I41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="150" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1765,21 +1768,21 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
     </row>
     <row r="3" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>6</v>
@@ -1804,7 +1807,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="37" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="11" t="s">
@@ -1819,17 +1822,17 @@
       <c r="E4" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="29" t="s">
+      <c r="F4" s="25" t="s">
         <v>9</v>
       </c>
       <c r="G4" s="16"/>
       <c r="H4" s="17">
         <v>0.94</v>
       </c>
-      <c r="I4" s="32"/>
+      <c r="I4" s="28"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="24"/>
+      <c r="A5" s="38"/>
       <c r="B5" s="6" t="s">
         <v>10</v>
       </c>
@@ -1842,17 +1845,17 @@
       <c r="E5" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="30" t="s">
+      <c r="F5" s="26" t="s">
         <v>9</v>
       </c>
       <c r="G5" s="13"/>
       <c r="H5" s="14"/>
-      <c r="I5" s="26"/>
+      <c r="I5" s="22"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="24"/>
+      <c r="A6" s="38"/>
       <c r="B6" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C6" s="18" t="s">
         <v>9</v>
@@ -1863,59 +1866,59 @@
       <c r="E6" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="30" t="s">
+      <c r="F6" s="26" t="s">
         <v>9</v>
       </c>
       <c r="G6" s="13"/>
       <c r="H6" s="14"/>
-      <c r="I6" s="26"/>
+      <c r="I6" s="22"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="24"/>
+      <c r="A7" s="38"/>
       <c r="B7" s="6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E7" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="30" t="s">
+      <c r="F7" s="26" t="s">
         <v>9</v>
       </c>
       <c r="G7" s="13"/>
       <c r="H7" s="14"/>
-      <c r="I7" s="26"/>
+      <c r="I7" s="22"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="24"/>
+      <c r="A8" s="38"/>
       <c r="B8" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C8" s="18" t="s">
         <v>9</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E8" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="30" t="s">
+      <c r="F8" s="26" t="s">
         <v>9</v>
       </c>
       <c r="G8" s="13"/>
       <c r="H8" s="14"/>
-      <c r="I8" s="26"/>
+      <c r="I8" s="22"/>
     </row>
     <row r="9" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="25"/>
+      <c r="A9" s="39"/>
       <c r="B9" s="12" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C9" s="19" t="s">
         <v>9</v>
@@ -1926,19 +1929,19 @@
       <c r="E9" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="31" t="s">
+      <c r="F9" s="27" t="s">
         <v>9</v>
       </c>
       <c r="G9" s="13"/>
       <c r="H9" s="14"/>
-      <c r="I9" s="33"/>
+      <c r="I9" s="29"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="23" t="s">
+      <c r="A10" s="37" t="s">
         <v>14</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C10" s="15" t="s">
         <v>9</v>
@@ -1949,40 +1952,40 @@
       <c r="E10" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="F10" s="29" t="s">
+      <c r="F10" s="25" t="s">
         <v>9</v>
       </c>
       <c r="G10" s="16"/>
       <c r="H10" s="17">
         <v>0.93</v>
       </c>
-      <c r="I10" s="32"/>
+      <c r="I10" s="28"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="24"/>
+      <c r="A11" s="38"/>
       <c r="B11" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E11" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="F11" s="30" t="s">
+      <c r="F11" s="26" t="s">
         <v>9</v>
       </c>
       <c r="G11" s="13"/>
       <c r="H11" s="14"/>
-      <c r="I11" s="33"/>
+      <c r="I11" s="29"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="24"/>
+      <c r="A12" s="38"/>
       <c r="B12" s="6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C12" s="18" t="s">
         <v>9</v>
@@ -1993,17 +1996,17 @@
       <c r="E12" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="F12" s="30" t="s">
+      <c r="F12" s="26" t="s">
         <v>9</v>
       </c>
       <c r="G12" s="14"/>
       <c r="H12" s="14"/>
-      <c r="I12" s="26"/>
+      <c r="I12" s="22"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="24"/>
+      <c r="A13" s="38"/>
       <c r="B13" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C13" s="18" t="s">
         <v>9</v>
@@ -2012,19 +2015,19 @@
         <v>9</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="F13" s="30" t="s">
-        <v>28</v>
+        <v>26</v>
+      </c>
+      <c r="F13" s="26" t="s">
+        <v>26</v>
       </c>
       <c r="G13" s="13"/>
       <c r="H13" s="14"/>
-      <c r="I13" s="34"/>
+      <c r="I13" s="30"/>
     </row>
     <row r="14" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="25"/>
+      <c r="A14" s="39"/>
       <c r="B14" s="12" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C14" s="19" t="s">
         <v>9</v>
@@ -2035,19 +2038,19 @@
       <c r="E14" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="F14" s="31" t="s">
+      <c r="F14" s="27" t="s">
         <v>9</v>
       </c>
       <c r="G14" s="20"/>
       <c r="H14" s="21"/>
-      <c r="I14" s="35"/>
+      <c r="I14" s="31"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="23" t="s">
+      <c r="A15" s="37" t="s">
         <v>15</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C15" s="15" t="s">
         <v>9</v>
@@ -2058,42 +2061,42 @@
       <c r="E15" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="F15" s="29" t="s">
+      <c r="F15" s="25" t="s">
         <v>9</v>
       </c>
       <c r="G15" s="16"/>
       <c r="H15" s="17">
         <v>0.96</v>
       </c>
-      <c r="I15" s="36"/>
+      <c r="I15" s="32"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="24"/>
+      <c r="A16" s="38"/>
       <c r="B16" s="6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C16" s="18" t="s">
         <v>9</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E16" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="F16" s="30" t="s">
+      <c r="F16" s="26" t="s">
         <v>9</v>
       </c>
       <c r="G16" s="13"/>
       <c r="H16" s="14"/>
-      <c r="I16" s="37" t="s">
-        <v>47</v>
+      <c r="I16" s="33" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="25"/>
+      <c r="A17" s="39"/>
       <c r="B17" s="12" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C17" s="18" t="s">
         <v>9</v>
@@ -2104,44 +2107,44 @@
       <c r="E17" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="F17" s="30" t="s">
+      <c r="F17" s="26" t="s">
         <v>9</v>
       </c>
       <c r="G17" s="21"/>
       <c r="H17" s="21"/>
-      <c r="I17" s="35"/>
+      <c r="I17" s="31"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="23" t="s">
+      <c r="A18" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="B18" s="27" t="s">
-        <v>39</v>
+      <c r="B18" s="23" t="s">
+        <v>37</v>
       </c>
       <c r="C18" s="15" t="s">
         <v>9</v>
       </c>
       <c r="D18" s="16" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E18" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="F18" s="29" t="s">
+      <c r="F18" s="25" t="s">
         <v>9</v>
       </c>
       <c r="G18" s="17"/>
       <c r="H18" s="17">
         <v>0.89</v>
       </c>
-      <c r="I18" s="36" t="s">
-        <v>46</v>
+      <c r="I18" s="32" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="24"/>
-      <c r="B19" s="27" t="s">
-        <v>40</v>
+      <c r="A19" s="38"/>
+      <c r="B19" s="23" t="s">
+        <v>38</v>
       </c>
       <c r="C19" s="18" t="s">
         <v>9</v>
@@ -2152,19 +2155,19 @@
       <c r="E19" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="F19" s="30" t="s">
+      <c r="F19" s="26" t="s">
         <v>9</v>
       </c>
       <c r="G19" s="14"/>
       <c r="H19" s="14"/>
-      <c r="I19" s="37" t="s">
-        <v>44</v>
+      <c r="I19" s="33" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="25"/>
-      <c r="B20" s="28" t="s">
-        <v>38</v>
+      <c r="A20" s="39"/>
+      <c r="B20" s="24" t="s">
+        <v>36</v>
       </c>
       <c r="C20" s="19" t="s">
         <v>9</v>
@@ -2175,19 +2178,19 @@
       <c r="E20" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="F20" s="31" t="s">
+      <c r="F20" s="27" t="s">
         <v>9</v>
       </c>
       <c r="G20" s="21"/>
       <c r="H20" s="21"/>
-      <c r="I20" s="38"/>
+      <c r="I20" s="34"/>
     </row>
     <row r="21" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="23" t="s">
+      <c r="A21" s="37" t="s">
         <v>16</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C21" s="18" t="s">
         <v>9</v>
@@ -2198,42 +2201,42 @@
       <c r="E21" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="F21" s="30" t="s">
+      <c r="F21" s="26" t="s">
         <v>9</v>
       </c>
       <c r="G21" s="17"/>
       <c r="H21" s="17">
         <v>0.92</v>
       </c>
-      <c r="I21" s="39"/>
+      <c r="I21" s="35"/>
     </row>
     <row r="22" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="24"/>
+      <c r="A22" s="38"/>
       <c r="B22" s="6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C22" s="18" t="s">
         <v>9</v>
       </c>
       <c r="D22" s="13" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E22" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="F22" s="30" t="s">
+      <c r="F22" s="26" t="s">
         <v>9</v>
       </c>
       <c r="G22" s="14"/>
       <c r="H22" s="14"/>
-      <c r="I22" s="37" t="s">
-        <v>45</v>
+      <c r="I22" s="33" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A23" s="24"/>
+      <c r="A23" s="38"/>
       <c r="B23" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C23" s="18" t="s">
         <v>9</v>
@@ -2244,33 +2247,33 @@
       <c r="E23" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="F23" s="30" t="s">
+      <c r="F23" s="26" t="s">
         <v>9</v>
       </c>
       <c r="G23" s="14"/>
       <c r="H23" s="14"/>
-      <c r="I23" s="37"/>
+      <c r="I23" s="33"/>
     </row>
     <row r="24" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="25"/>
-      <c r="B24" s="28" t="s">
-        <v>43</v>
+      <c r="A24" s="39"/>
+      <c r="B24" s="24" t="s">
+        <v>41</v>
       </c>
       <c r="C24" s="19" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D24" s="20" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E24" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="F24" s="31" t="s">
+      <c r="F24" s="27" t="s">
         <v>9</v>
       </c>
       <c r="G24" s="21"/>
       <c r="H24" s="21"/>
-      <c r="I24" s="35"/>
+      <c r="I24" s="31"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C25" s="5"/>
@@ -2299,7 +2302,7 @@
     </row>
     <row r="28" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A28" s="10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B28" s="8" t="s">
         <v>17</v>
@@ -2322,7 +2325,7 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
@@ -2331,7 +2334,7 @@
     </row>
     <row r="31" spans="1:9" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="C31" s="5"/>
       <c r="D31" s="5"/>
@@ -2349,7 +2352,7 @@
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C33" s="5"/>
       <c r="D33" s="5"/>
